--- a/Producao/Modelos/REQUISICAO_KIT_MODELO.xlsx
+++ b/Producao/Modelos/REQUISICAO_KIT_MODELO.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\wognascimento\SIG\SIG\Producao\Producao\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIPOLATTI\SISTEMAS\Producao\Producao\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC6182-1E5A-43AD-BB4E-EB8F08A2016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3517B-6587-40E1-BC77-D68265A99795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{795787B9-A603-4E9F-9555-87E07481D83A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{795787B9-A603-4E9F-9555-87E07481D83A}"/>
   </bookViews>
   <sheets>
     <sheet name="RELATÓRIO" sheetId="1" r:id="rId1"/>
     <sheet name="ETIQUETA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RELATÓRIO!$A$8:$R$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">RELATÓRIO!$8:$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RELATÓRIO!$A$9:$S$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">RELATÓRIO!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>QTD</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>PESO. UNIT.</t>
+  </si>
+  <si>
+    <t>ATENDENTE</t>
+  </si>
+  <si>
+    <t>INSERIDO POR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +173,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -276,11 +298,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,44 +371,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,14 +459,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +538,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +644,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC889DE-7B05-4795-BCD8-9882F919D78A}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:R8"/>
+      <selection activeCell="A9" sqref="A9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,197 +809,202 @@
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="13" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3" s="28"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="1" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="1" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -894,7 +1020,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -910,7 +1036,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -926,7 +1052,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -942,7 +1068,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -958,7 +1084,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -974,7 +1100,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1246,9 +1372,25 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zWCKb4A/m5MLcU7MdhwtmLGtdSGparEzAYB6yZ2Vy9gw3ZD93egewe+QCisIt1TTUXnn0AOzEPcYB+1Rm1BK5w==" saltValue="l3BILJnQRkRQsq72VcGdUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" autoFilter="0"/>
-  <autoFilter ref="A8:R8" xr:uid="{DCC889DE-7B05-4795-BCD8-9882F919D78A}">
+  <sheetProtection algorithmName="SHA-512" hashValue="lcN38BieSVHqHi6FzFPc52FyLoX+8fG0YDP/x0g0mpKZMkk6gOh6lLxNXoRq6PAWZgHsbvx6gQufVIP0eRYk4A==" saltValue="Mp0woxvSmIq9+eftwCpGPQ==" spinCount="100000" sheet="1" autoFilter="0"/>
+  <autoFilter ref="A9:S9" xr:uid="{DCC889DE-7B05-4795-BCD8-9882F919D78A}">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -1258,35 +1400,34 @@
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
-  <mergeCells count="25">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="A7:N7"/>
+  <mergeCells count="24">
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"-,Negrito"Impresso em:  &amp;D</oddFooter>
   </headerFooter>
